--- a/data/trans_orig/P21D_4_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3202</v>
+        <v>2500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00367226714121189</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02308540846102958</v>
+        <v>0.0180201193732082</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2568</v>
+        <v>2838</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001738507682474211</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008765452084940995</v>
+        <v>0.009685446260222032</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>138200</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135507</v>
+        <v>136209</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>138709</v>
@@ -826,7 +826,7 @@
         <v>0.9963277328587882</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9769145915389703</v>
+        <v>0.981979880626794</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>292487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>290428</v>
+        <v>290158</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>292996</v>
@@ -847,7 +847,7 @@
         <v>0.9982614923175258</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9912345479150593</v>
+        <v>0.9903145537397779</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5354</v>
+        <v>5075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004486202483288487</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02414740345895825</v>
+        <v>0.02288711869194431</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -963,19 +963,19 @@
         <v>1927</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5097</v>
+        <v>5326</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00765950721352962</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002325425983515435</v>
+        <v>0.002356041758232923</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02026245699729344</v>
+        <v>0.02117291139547758</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -984,19 +984,19 @@
         <v>2921</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>609</v>
+        <v>735</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7039</v>
+        <v>7416</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.006172750495314312</v>
+        <v>0.006172750495314314</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001287465134180746</v>
+        <v>0.001554032791161508</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01487326764124593</v>
+        <v>0.01567062202086137</v>
       </c>
     </row>
     <row r="8">
@@ -1013,16 +1013,16 @@
         <v>220737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>216378</v>
+        <v>216657</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>221732</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9955137975167114</v>
+        <v>0.9955137975167115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9758525965410418</v>
+        <v>0.9771128813080557</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,19 +1034,19 @@
         <v>249601</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>246431</v>
+        <v>246202</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>250943</v>
+        <v>250935</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9923404927864704</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9797375430027062</v>
+        <v>0.9788270886045224</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9976745740164845</v>
+        <v>0.997643958241767</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>480</v>
@@ -1055,19 +1055,19 @@
         <v>470339</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>466221</v>
+        <v>465844</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>472651</v>
+        <v>472525</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9938272495046858</v>
+        <v>0.9938272495046857</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.985126732358754</v>
+        <v>0.984329377979139</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9987125348658192</v>
+        <v>0.9984459672088386</v>
       </c>
     </row>
     <row r="9">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3376</v>
+        <v>4617</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007087387113855551</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0362848182511955</v>
+        <v>0.0496144800474055</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1180,19 +1180,19 @@
         <v>5372</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2508</v>
+        <v>2562</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9514</v>
+        <v>10207</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0367114041415376</v>
+        <v>0.03671140414153759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01713583076126857</v>
+        <v>0.01750816826790179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06501220889348795</v>
+        <v>0.069749644403219</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1201,19 +1201,19 @@
         <v>6032</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2643</v>
+        <v>2869</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10983</v>
+        <v>11148</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02519650837383752</v>
+        <v>0.02519650837383753</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01104176508090065</v>
+        <v>0.01198346908177615</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04587598211069644</v>
+        <v>0.04656553475675515</v>
       </c>
     </row>
     <row r="11">
@@ -1230,16 +1230,16 @@
         <v>92394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89678</v>
+        <v>88437</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>93054</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9929126128861444</v>
+        <v>0.9929126128861445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9637151817488057</v>
+        <v>0.9503855199525946</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1251,19 +1251,19 @@
         <v>140970</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136828</v>
+        <v>136135</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143834</v>
+        <v>143780</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9632885958584624</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.934987791106512</v>
+        <v>0.9302503555967807</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9828641692387315</v>
+        <v>0.9824918317320981</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>327</v>
@@ -1272,19 +1272,19 @@
         <v>233364</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>228413</v>
+        <v>228248</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>236753</v>
+        <v>236527</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9748034916261624</v>
+        <v>0.9748034916261626</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9541240178893036</v>
+        <v>0.9534344652432448</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9889582349190993</v>
+        <v>0.9880165309182238</v>
       </c>
     </row>
     <row r="12">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6767</v>
+        <v>6620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009919438104449388</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03878678922330315</v>
+        <v>0.03794507407686153</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7223</v>
+        <v>6688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004602903985099819</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01921158252506416</v>
+        <v>0.01778755903360866</v>
       </c>
     </row>
     <row r="14">
@@ -1439,16 +1439,16 @@
         <v>172729</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167693</v>
+        <v>167840</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>174460</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9900805618955507</v>
+        <v>0.9900805618955505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9612132107766967</v>
+        <v>0.962054925923139</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>374237</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>368745</v>
+        <v>369280</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>375968</v>
@@ -1482,7 +1482,7 @@
         <v>0.9953970960149001</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9807884174749379</v>
+        <v>0.9822124409663914</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1590,19 +1590,19 @@
         <v>1258</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3289</v>
+        <v>3418</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01584779504296783</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004540074361631852</v>
+        <v>0.004693831319598666</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04143328542684587</v>
+        <v>0.04305025911818153</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1611,19 +1611,19 @@
         <v>1258</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3801</v>
+        <v>3965</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00768032051649734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002257967794860918</v>
+        <v>0.002271613073802984</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02320220633694473</v>
+        <v>0.02420521133832278</v>
       </c>
     </row>
     <row r="17">
@@ -1653,19 +1653,19 @@
         <v>78127</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76096</v>
+        <v>75967</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79025</v>
+        <v>79012</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9841522049570319</v>
+        <v>0.9841522049570323</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9585667145731541</v>
+        <v>0.9569497408818183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.995459925638368</v>
+        <v>0.9953061686804012</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>268</v>
@@ -1674,19 +1674,19 @@
         <v>162548</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>160005</v>
+        <v>159841</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>163436</v>
+        <v>163434</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9923196794835027</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9767977936630545</v>
+        <v>0.9757947886616765</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9977420322051389</v>
+        <v>0.997728386926197</v>
       </c>
     </row>
     <row r="18">
@@ -1960,19 +1960,19 @@
         <v>3757</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10805</v>
+        <v>10685</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01054838117786881</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003704714868642255</v>
+        <v>0.003693809949449838</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03033528532887778</v>
+        <v>0.02999844395294509</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1981,19 +1981,19 @@
         <v>3757</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>722</v>
+        <v>1345</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10130</v>
+        <v>10315</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005299276647860171</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001018873934610752</v>
+        <v>0.001897456483443797</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01428776396627045</v>
+        <v>0.01454853322141697</v>
       </c>
     </row>
     <row r="23">
@@ -2023,19 +2023,19 @@
         <v>352422</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>345374</v>
+        <v>345494</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>354859</v>
+        <v>354863</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9894516188221312</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9696647146711216</v>
+        <v>0.9700015560470544</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9962952851313577</v>
+        <v>0.9963061900505501</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>717</v>
@@ -2044,19 +2044,19 @@
         <v>705229</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>698856</v>
+        <v>698671</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>708264</v>
+        <v>707641</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9947007233521398</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9857122360337296</v>
+        <v>0.9854514667785833</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9989811260653895</v>
+        <v>0.9981025435165561</v>
       </c>
     </row>
     <row r="24">
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5701</v>
+        <v>4778</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003583004159705905</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01400654542233281</v>
+        <v>0.01174010814927048</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5151</v>
+        <v>5091</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001899641408223072</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.006709445909215053</v>
+        <v>0.00663217921393301</v>
       </c>
     </row>
     <row r="26">
@@ -2224,16 +2224,16 @@
         <v>405548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>401305</v>
+        <v>402228</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>407006</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9964169958402943</v>
+        <v>0.9964169958402942</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.985993454577667</v>
+        <v>0.9882598918507289</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>766215</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>762522</v>
+        <v>762582</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>767673</v>
@@ -2254,7 +2254,7 @@
         <v>0.998100358591777</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9932905540907851</v>
+        <v>0.9933678207860667</v>
       </c>
       <c r="W26" s="6" t="n">
         <v>1</v>
@@ -2349,19 +2349,19 @@
         <v>3385</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1126</v>
+        <v>661</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8853</v>
+        <v>8422</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002158288616298389</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0007177390548879274</v>
+        <v>0.0004214788799540828</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005644887167911478</v>
+        <v>0.005370324198052581</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -2370,19 +2370,19 @@
         <v>14282</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9125</v>
+        <v>9013</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22699</v>
+        <v>22337</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.008429009647890133</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00538517488020119</v>
+        <v>0.005319653471980081</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.013396874165951</v>
+        <v>0.01318302217112902</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -2391,19 +2391,19 @@
         <v>17667</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11563</v>
+        <v>11514</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>26690</v>
+        <v>26208</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00541482994782403</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003544061730353377</v>
+        <v>0.00352901250015687</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008180528001902191</v>
+        <v>0.008032887308279724</v>
       </c>
     </row>
     <row r="29">
@@ -2420,19 +2420,19 @@
         <v>1564889</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1559421</v>
+        <v>1559852</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1567148</v>
+        <v>1567613</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9978417113837017</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9943551128320888</v>
+        <v>0.9946296758019477</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9992822609451122</v>
+        <v>0.9995785211200459</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2351</v>
@@ -2441,19 +2441,19 @@
         <v>1680092</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1671675</v>
+        <v>1672037</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1685249</v>
+        <v>1685361</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.99157099035211</v>
+        <v>0.9915709903521098</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.986603125834052</v>
+        <v>0.9868169778288711</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.994614825119799</v>
+        <v>0.99468034652802</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3807</v>
@@ -2462,19 +2462,19 @@
         <v>3244981</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3235958</v>
+        <v>3236440</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3251085</v>
+        <v>3251134</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9945851700521759</v>
+        <v>0.9945851700521758</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9918194719980979</v>
+        <v>0.9919671126917203</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9964559382696468</v>
+        <v>0.9964709874998431</v>
       </c>
     </row>
     <row r="30">
